--- a/excel/format-sparepart.xlsx
+++ b/excel/format-sparepart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\waranti_daihatsu\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\waranti\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD33AE-031B-46BC-BE82-B7BC6B952AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,76 +17,26 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>ZONA</t>
-  </si>
-  <si>
-    <t>KATEGORI</t>
-  </si>
-  <si>
-    <t>TARIF</t>
-  </si>
-  <si>
-    <t>TGL_LAHIR</t>
-  </si>
-  <si>
-    <t>JK</t>
-  </si>
-  <si>
-    <t>NO_KTP</t>
-  </si>
-  <si>
-    <t>NO_TELP</t>
-  </si>
-  <si>
-    <t>TELP_RUMAH</t>
-  </si>
-  <si>
-    <t>PAKAI_METER</t>
-  </si>
-  <si>
-    <t>TGL_REG</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>BIAYA_INSTALASI</t>
-  </si>
-  <si>
-    <t>NAMA_PEGAWAI</t>
-  </si>
-  <si>
-    <t>laki-laki</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>gol2</t>
-  </si>
-  <si>
-    <t>aktif</t>
-  </si>
-  <si>
-    <t>wulan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NO PART</t>
   </si>
   <si>
     <t>DESKRIPSI</t>
   </si>
+  <si>
+    <t>gelo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,23 +173,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,23 +208,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,8 +383,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -491,94 +406,24 @@
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90111</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="E2" s="2">
-        <v>34334</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>4324324234</v>
-      </c>
-      <c r="H2">
-        <v>1243342</v>
-      </c>
-      <c r="I2">
-        <v>231312321</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>5000</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>45</v>
-      </c>
-      <c r="N2" s="2">
-        <v>43883</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2">
-        <v>50000</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -586,7 +431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -598,7 +443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
